--- a/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3537793433598</v>
+        <v>14.452709</v>
       </c>
       <c r="H2">
-        <v>13.3537793433598</v>
+        <v>43.358127</v>
       </c>
       <c r="I2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.81203343722251</v>
+        <v>2.400925</v>
       </c>
       <c r="N2">
-        <v>1.81203343722251</v>
+        <v>7.202775</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9592478079643895</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9592478079643894</v>
       </c>
       <c r="Q2">
-        <v>24.19749468345921</v>
+        <v>34.699870355825</v>
       </c>
       <c r="R2">
-        <v>24.19749468345921</v>
+        <v>312.298833202425</v>
       </c>
       <c r="S2">
-        <v>0.1435985692605894</v>
+        <v>0.1416719205061664</v>
       </c>
       <c r="T2">
-        <v>0.1435985692605894</v>
+        <v>0.1416719205061664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.8629981785385</v>
+        <v>14.452709</v>
       </c>
       <c r="H3">
-        <v>45.8629981785385</v>
+        <v>43.358127</v>
       </c>
       <c r="I3">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J3">
-        <v>0.4931832967356902</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.81203343722251</v>
+        <v>0.1019996666666667</v>
       </c>
       <c r="N3">
-        <v>1.81203343722251</v>
+        <v>0.305999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.04075219203561061</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.04075219203561061</v>
       </c>
       <c r="Q3">
-        <v>83.10528623078683</v>
+        <v>1.474171500430333</v>
       </c>
       <c r="R3">
-        <v>83.10528623078683</v>
+        <v>13.267543503873</v>
       </c>
       <c r="S3">
-        <v>0.4931832967356902</v>
+        <v>0.006018717230923695</v>
       </c>
       <c r="T3">
-        <v>0.4931832967356902</v>
+        <v>0.006018717230923696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.6620531093463</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H4">
-        <v>32.6620531093463</v>
+        <v>137.745872</v>
       </c>
       <c r="I4">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J4">
-        <v>0.3512282159992213</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81203343722251</v>
+        <v>2.400925</v>
       </c>
       <c r="N4">
-        <v>1.81203343722251</v>
+        <v>7.202775</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9592478079643895</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9592478079643894</v>
       </c>
       <c r="Q4">
-        <v>59.18473236247295</v>
+        <v>110.2391692438667</v>
       </c>
       <c r="R4">
-        <v>59.18473236247295</v>
+        <v>992.1525231948001</v>
       </c>
       <c r="S4">
-        <v>0.3512282159992213</v>
+        <v>0.4500822239862109</v>
       </c>
       <c r="T4">
-        <v>0.3512282159992213</v>
+        <v>0.4500822239862109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,303 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>45.91529066666667</v>
+      </c>
+      <c r="H5">
+        <v>137.745872</v>
+      </c>
+      <c r="I5">
+        <v>0.4692032864180593</v>
+      </c>
+      <c r="J5">
+        <v>0.4692032864180593</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1019996666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.305999</v>
+      </c>
+      <c r="O5">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="P5">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="Q5">
+        <v>4.683344342903112</v>
+      </c>
+      <c r="R5">
+        <v>42.15009908612801</v>
+      </c>
+      <c r="S5">
+        <v>0.01912106243184836</v>
+      </c>
+      <c r="T5">
+        <v>0.01912106243184836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.11498826347291</v>
-      </c>
-      <c r="H5">
-        <v>1.11498826347291</v>
-      </c>
-      <c r="I5">
-        <v>0.01198991800449919</v>
-      </c>
-      <c r="J5">
-        <v>0.01198991800449919</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.81203343722251</v>
-      </c>
-      <c r="N5">
-        <v>1.81203343722251</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>2.020396015523575</v>
-      </c>
-      <c r="R5">
-        <v>2.020396015523575</v>
-      </c>
-      <c r="S5">
-        <v>0.01198991800449919</v>
-      </c>
-      <c r="T5">
-        <v>0.01198991800449919</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>36.015061</v>
+      </c>
+      <c r="H6">
+        <v>108.045183</v>
+      </c>
+      <c r="I6">
+        <v>0.3680339324088102</v>
+      </c>
+      <c r="J6">
+        <v>0.3680339324088103</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.400925</v>
+      </c>
+      <c r="N6">
+        <v>7.202775</v>
+      </c>
+      <c r="O6">
+        <v>0.9592478079643895</v>
+      </c>
+      <c r="P6">
+        <v>0.9592478079643894</v>
+      </c>
+      <c r="Q6">
+        <v>86.46946033142501</v>
+      </c>
+      <c r="R6">
+        <v>778.2251429828251</v>
+      </c>
+      <c r="S6">
+        <v>0.3530357429196655</v>
+      </c>
+      <c r="T6">
+        <v>0.3530357429196655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>36.015061</v>
+      </c>
+      <c r="H7">
+        <v>108.045183</v>
+      </c>
+      <c r="I7">
+        <v>0.3680339324088102</v>
+      </c>
+      <c r="J7">
+        <v>0.3680339324088103</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1019996666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.305999</v>
+      </c>
+      <c r="O7">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="P7">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="Q7">
+        <v>3.673524216979667</v>
+      </c>
+      <c r="R7">
+        <v>33.06171795281701</v>
+      </c>
+      <c r="S7">
+        <v>0.01499818948914477</v>
+      </c>
+      <c r="T7">
+        <v>0.01499818948914477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J8">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.400925</v>
+      </c>
+      <c r="N8">
+        <v>7.202775</v>
+      </c>
+      <c r="O8">
+        <v>0.9592478079643895</v>
+      </c>
+      <c r="P8">
+        <v>0.9592478079643894</v>
+      </c>
+      <c r="Q8">
+        <v>3.541195509941667</v>
+      </c>
+      <c r="R8">
+        <v>31.870759589475</v>
+      </c>
+      <c r="S8">
+        <v>0.01445792055234673</v>
+      </c>
+      <c r="T8">
+        <v>0.01445792055234673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.474929666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.424789000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="J9">
+        <v>0.01507214343604052</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1019996666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.305999</v>
+      </c>
+      <c r="O9">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="P9">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="Q9">
+        <v>0.1504423343567778</v>
+      </c>
+      <c r="R9">
+        <v>1.353981009211</v>
+      </c>
+      <c r="S9">
+        <v>0.0006142228836937913</v>
+      </c>
+      <c r="T9">
+        <v>0.0006142228836937913</v>
       </c>
     </row>
   </sheetData>
